--- a/Oct 2020 to Nov 2020 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Oct 2020 to Nov 2020 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5F7FF2-66C3-4D8E-984E-9E32458176D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8757E2-3005-4C3D-B65B-CAD335C72853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>Network Added to Base Service</t>
   </si>
   <si>
-    <t>Network Added to Add-On Service</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>Qello Concerts by Stingray</t>
+  </si>
+  <si>
+    <t>Network Added to Add-On Package</t>
   </si>
 </sst>
 </file>
@@ -928,7 +928,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -959,10 +959,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -973,13 +973,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -987,13 +987,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1001,13 +1001,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1029,16 +1029,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
